--- a/ресурсы Дем ЭКЗАМЕН/Прил_В1_КОД 09.02.07-5-2024-ПУ/DataDictionary_Template.xlsx
+++ b/ресурсы Дем ЭКЗАМЕН/Прил_В1_КОД 09.02.07-5-2024-ПУ/DataDictionary_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="DataDictionary" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
-  <si>
-    <t>Data Dictionary</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
   <si>
     <t>KEY</t>
   </si>
@@ -41,35 +38,164 @@
     <t>Y</t>
   </si>
   <si>
-    <t>VARCHAR (50)</t>
-  </si>
-  <si>
-    <t>VARCHAR (100)</t>
-  </si>
-  <si>
-    <t>VARCHAR (20)</t>
-  </si>
-  <si>
-    <t>Шаблон</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>CHAR(1)</t>
-  </si>
-  <si>
-    <t>Table Name</t>
-  </si>
-  <si>
-    <t>TestAttribute</t>
+    <t>orderid</t>
+  </si>
+  <si>
+    <t>datecreation</t>
+  </si>
+  <si>
+    <t>orderstatus</t>
+  </si>
+  <si>
+    <t>paymentstatus</t>
+  </si>
+  <si>
+    <t>carelement</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>amountdamage</t>
+  </si>
+  <si>
+    <t>liquids</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Первичный ключ для идентификации пользователя и создания связей</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Data Dictionary CarService</t>
+  </si>
+  <si>
+    <t>orderuserlistid</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>orderuserlist</t>
+  </si>
+  <si>
+    <t>Первичный ключ для идентификации и создания связей</t>
+  </si>
+  <si>
+    <t>Внешний ключ для подстановки значений из таблицы user</t>
+  </si>
+  <si>
+    <t>Внешний ключ для подстановки значений из таблицы order</t>
+  </si>
+  <si>
+    <t>shiftid</t>
+  </si>
+  <si>
+    <t>datestart</t>
+  </si>
+  <si>
+    <t>dateend</t>
+  </si>
+  <si>
+    <t>Дата начала смены</t>
+  </si>
+  <si>
+    <t>Дата конца смены</t>
+  </si>
+  <si>
+    <t>Первичный ключ для идентификации смен и создания связей</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>userroleid</t>
+  </si>
+  <si>
+    <t>Фамилия пользователя</t>
+  </si>
+  <si>
+    <t>Логин пользователя</t>
+  </si>
+  <si>
+    <t>Отчество пользователя</t>
+  </si>
+  <si>
+    <t>Пароль пользователя</t>
+  </si>
+  <si>
+    <t>Статус (Уволен или работает)</t>
+  </si>
+  <si>
+    <t>Внешний ключ к таблице роли</t>
+  </si>
+  <si>
+    <t>userlist</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>userlistid</t>
+  </si>
+  <si>
+    <t>Внешний ключ для подстановки значений из таблицы shift</t>
+  </si>
+  <si>
+    <t>Первичный ключ для идентификации пользователей и создания связей</t>
+  </si>
+  <si>
+    <t>Первичный ключ для идентификации</t>
+  </si>
+  <si>
+    <t>userrole</t>
+  </si>
+  <si>
+    <t>namerole</t>
+  </si>
+  <si>
+    <t>Название роли</t>
+  </si>
+  <si>
+    <t>Имя пользователя</t>
+  </si>
+  <si>
+    <t>Статус заказа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +240,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,10 +317,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,23 +344,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -574,139 +721,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="18.75">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>7</v>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="D12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9"/>
@@ -716,196 +873,540 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30">
+      <c r="A22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3"/>
-      <c r="D28" s="3"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.25" customHeight="1">
       <c r="A31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" ht="30">
+      <c r="A33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6"/>
+      <c r="B36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="A45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A50:E50"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
